--- a/Assets/Dialogs/DialogDB_Sky.xlsx
+++ b/Assets/Dialogs/DialogDB_Sky.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT_NOTGIT\LGHNH_Project(AfterTotalMerge23_08_10)\Assets\Dialogs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b4d1236af1f427cd/Documents/GitHub/LGHNH_Project/Assets/Dialogs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6824509D-CB41-4E94-8B25-47217DE6D03B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{6824509D-CB41-4E94-8B25-47217DE6D03B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87373093-3259-427E-BBCE-85833CEB175B}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="10455" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sky" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="115">
   <si>
     <t>순번</t>
   </si>
@@ -65,9 +65,6 @@
     <t>알로대나무 숲</t>
   </si>
   <si>
-    <t>대화</t>
-  </si>
-  <si>
     <t>리비</t>
   </si>
   <si>
@@ -98,9 +95,6 @@
     <t>아직은 서툰 견습 마법 학생들을 돕는게, 우리 메인트너스 종족이니까.</t>
   </si>
   <si>
-    <t>고마워 리비. 덕분에 살았네.</t>
-  </si>
-  <si>
     <t>그보다 말이야, 이곳 알라야 마운틴. 겉보기론 별 이상이 없어 보이는데 말이지.</t>
   </si>
   <si>
@@ -110,9 +104,6 @@
     <t xml:space="preserve">겉모습으로 판단하긴 일러. 오염은 아주 끈질기고, 영리하게 다양한 종족을 괴롭히니까 </t>
   </si>
   <si>
-    <t>수락</t>
-  </si>
-  <si>
     <t>맞아요. 당장 저희 마을도 오염때문에 잔뜩 고생 중이고요.</t>
   </si>
   <si>
@@ -149,9 +140,6 @@
     <t>아이템은 맵을 탐색하여 습득할 수 있습니다.</t>
   </si>
   <si>
-    <t>맵을 잘 살피고 희귀한 알로대나무 잎사귀를 찾아 터치해 보세요.</t>
-  </si>
-  <si>
     <t>완료</t>
   </si>
   <si>
@@ -206,18 +194,9 @@
     <t>솔티 마을</t>
   </si>
   <si>
-    <t>이곳이 저희 솔티 마을입니다.</t>
-  </si>
-  <si>
-    <t>그리고 이쪽은...</t>
-  </si>
-  <si>
     <t>가울</t>
   </si>
   <si>
-    <t>솔티 마을의 톤장, 가울이라합니다. 대강의 이야기는 들었습니다.</t>
-  </si>
-  <si>
     <t>오염의 정화를 위해 이 마을에 와주셨다고.</t>
   </si>
   <si>
@@ -260,18 +239,12 @@
     <t>물론입니다. 제가 괜한 전통을 고집한 모양이군요.</t>
   </si>
   <si>
-    <t>하늘향 호수로 향하시죠.</t>
-  </si>
-  <si>
     <t>하늘향 호수</t>
   </si>
   <si>
     <t>엄청난 장관이네.</t>
   </si>
   <si>
-    <t>응. 하지만 이곳도 꽤나 심각할 정도로 오염되어 있네.</t>
-  </si>
-  <si>
     <t xml:space="preserve">그러게. 특히 저 알로대나무 숲... </t>
   </si>
   <si>
@@ -302,9 +275,6 @@
     <t>촌장님과 야브?</t>
   </si>
   <si>
-    <t>늦지 않아 다행이네요.</t>
-  </si>
-  <si>
     <t>촌장님께서, 정화의 마지막 과정은 꼭 도와드리고 싶다고 하셔서요</t>
   </si>
   <si>
@@ -342,9 +312,6 @@
   </si>
   <si>
     <t>아쉽게 되었군요. 허허. 하지만 바쁘신 분을 붙잡아 두는 것도 예의가 아니겠지요.</t>
-  </si>
-  <si>
-    <t>그럼 요 앞의 행선지는 제가 안내해드리도록 하겠습니다.</t>
   </si>
   <si>
     <t>다들 펌핑 폭포로 향하시는 길이라면, 제가 길을 안내해드리도록 하겠습니다.</t>
@@ -357,19 +324,72 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>수락 / 완료 / 대화</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>???</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>수락 /완료 / 대화</t>
+  </si>
+  <si>
+    <t>수락(자동)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">고마워 리비. 덕분에 살았네. </t>
+  </si>
+  <si>
+    <t>맵을 잘 살피고 희귀한 알로대나무 잎사귀 3개를 찾아 터치해 보세요.</t>
+  </si>
+  <si>
+    <t>암전</t>
+  </si>
+  <si>
+    <t>(일행이 함께 솔티 마을로 이동한다)</t>
+  </si>
+  <si>
+    <t>카메라 이동</t>
+  </si>
+  <si>
+    <t>가울로 카메라가 이동한다</t>
+  </si>
+  <si>
+    <t>솔티 마을의 촌장, 가울이라합니다. 대강의 이야기는 들었습니다.</t>
+  </si>
+  <si>
+    <t>하늘향 호수로 향하시죠. 울루가 안내해드릴겁니다.</t>
+  </si>
+  <si>
+    <t>하늘향 호수로 카메라가 이동한다</t>
+  </si>
+  <si>
+    <t>울루</t>
+  </si>
+  <si>
+    <t>안내를 맡은 울루라고 합니다</t>
+  </si>
+  <si>
+    <t>이곳이 바로 알라야마운틴의 수원지인...</t>
+  </si>
+  <si>
+    <t>하을향 호수라고 합니다</t>
+  </si>
+  <si>
+    <t>응. 하지만 이곳도 꽤나 심각할 정도로 오염되어 있어.</t>
+  </si>
+  <si>
+    <t>완료(자동)</t>
+  </si>
+  <si>
+    <t>여긴 어쩐 일이세요?</t>
+  </si>
+  <si>
+    <t>촌장의 도움을 받아, 포션을 완성한다.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -388,6 +408,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -416,6 +437,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -440,15 +462,8 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -471,6 +486,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -506,7 +533,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -555,6 +582,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -567,11 +597,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -790,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -800,13 +839,13 @@
     <col min="2" max="3" width="14.81640625" customWidth="1"/>
     <col min="4" max="4" width="18.08984375" customWidth="1"/>
     <col min="5" max="5" width="8.08984375" customWidth="1"/>
-    <col min="6" max="6" width="12.26953125" style="20" customWidth="1"/>
+    <col min="6" max="6" width="12.26953125" style="16" customWidth="1"/>
     <col min="7" max="7" width="11.7265625" customWidth="1"/>
     <col min="8" max="8" width="90" customWidth="1"/>
     <col min="9" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="35.25" customHeight="1">
+    <row r="1" spans="1:14" ht="35.25" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -817,7 +856,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -838,654 +877,636 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="E2" s="4">
         <v>1</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="19.5" customHeight="1">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
       <c r="D3" s="6"/>
       <c r="E3" s="4">
         <v>1</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="19.5" customHeight="1">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
       <c r="D4" s="6"/>
       <c r="E4" s="4">
         <v>1</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="19.5" customHeight="1">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4">
         <v>1</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="H5" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="19.5" customHeight="1">
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
       <c r="D6" s="6"/>
       <c r="E6" s="4">
         <v>1</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="H6" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="19.5" customHeight="1">
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="19.5" customHeight="1">
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="6"/>
       <c r="E8" s="4">
         <v>1</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="19.5" customHeight="1">
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4">
         <v>1</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="19.5" customHeight="1">
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="4"/>
       <c r="E10" s="4">
         <v>1</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="G10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="19.5" customHeight="1">
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4">
         <v>1</v>
       </c>
       <c r="F11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="H11" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="16.5" customHeight="1">
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
       <c r="D12" s="7"/>
       <c r="E12" s="4">
         <v>1</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="16.5" customHeight="1">
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
       <c r="D13" s="7"/>
       <c r="E13" s="4">
         <v>1</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="16.5" customHeight="1">
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="7"/>
       <c r="E14" s="4">
         <v>1</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="16.5" customHeight="1">
       <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="7"/>
       <c r="E15" s="4">
         <v>1</v>
       </c>
       <c r="F15" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="16.5" customHeight="1">
       <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="7"/>
       <c r="E16" s="4">
         <v>1</v>
       </c>
       <c r="F16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="15" t="s">
-        <v>14</v>
-      </c>
       <c r="H16" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="16.5" customHeight="1">
       <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="7"/>
       <c r="E17" s="4">
         <v>1</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="16.5" customHeight="1">
       <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
       <c r="D18" s="7"/>
       <c r="E18" s="4">
         <v>1</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="16.5" customHeight="1">
       <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
       <c r="D19" s="7"/>
       <c r="E19" s="4">
         <v>1</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="16.5" customHeight="1">
       <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
       <c r="D20" s="7"/>
       <c r="E20" s="4">
         <v>1</v>
       </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="21"/>
+      <c r="F20" s="8"/>
       <c r="H20" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="16.5" customHeight="1">
       <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="7"/>
       <c r="E21" s="4">
         <v>1</v>
       </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="21"/>
+      <c r="F21" s="8"/>
       <c r="H21" s="9" t="s">
-        <v>37</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="16.5" customHeight="1">
       <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="10">
-        <v>2</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="F22"/>
     </row>
     <row r="23" spans="1:8" ht="16.5" customHeight="1">
       <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="7"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="E23" s="10">
         <v>2</v>
       </c>
       <c r="F23" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="15" t="s">
-        <v>14</v>
-      </c>
       <c r="H23" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="16.5" customHeight="1">
       <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="7"/>
       <c r="E24" s="10">
         <v>2</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="16.5" customHeight="1">
       <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
       <c r="D25" s="7"/>
       <c r="E25" s="10">
         <v>2</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="16.5" customHeight="1">
       <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
       <c r="D26" s="7"/>
       <c r="E26" s="10">
         <v>2</v>
       </c>
-      <c r="F26" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>22</v>
+      <c r="F26" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="16.5" customHeight="1">
       <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
       <c r="D27" s="7"/>
       <c r="E27" s="10">
         <v>2</v>
       </c>
-      <c r="F27" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>22</v>
+      <c r="F27" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="16.5" customHeight="1">
       <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="7"/>
       <c r="E28" s="10">
         <v>2</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="16.5" customHeight="1">
       <c r="A29" s="4">
         <v>28</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="7"/>
       <c r="E29" s="10">
         <v>2</v>
       </c>
-      <c r="F29" s="10"/>
-      <c r="G29" s="21"/>
+      <c r="F29" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="H29" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="16.5" customHeight="1">
       <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
       <c r="D30" s="7"/>
       <c r="E30" s="10">
         <v>2</v>
       </c>
-      <c r="F30" s="10"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="11" t="s">
-        <v>47</v>
+      <c r="F30" s="8"/>
+      <c r="H30" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="16.5" customHeight="1">
       <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="19"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
       <c r="D31" s="7"/>
       <c r="E31" s="10">
         <v>2</v>
       </c>
-      <c r="F31" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>48</v>
+      <c r="F31" s="8"/>
+      <c r="H31" s="11" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="16.5" customHeight="1">
       <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
       <c r="D32" s="7"/>
       <c r="E32" s="10">
         <v>2</v>
       </c>
-      <c r="F32" s="15" t="s">
+      <c r="F32" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G32" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>49</v>
+      <c r="H32" s="12" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" customHeight="1">
       <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
       <c r="D33" s="7"/>
       <c r="E33" s="10">
         <v>2</v>
       </c>
-      <c r="F33" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="G33" s="15" t="s">
-        <v>16</v>
+      <c r="F33" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" customHeight="1">
       <c r="A34" s="4">
         <v>33</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="19"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
       <c r="D34" s="7"/>
       <c r="E34" s="10">
         <v>2</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G34" s="15" t="s">
-        <v>22</v>
+        <v>94</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I34" s="13"/>
     </row>
@@ -1493,1032 +1514,1071 @@
       <c r="A35" s="4">
         <v>34</v>
       </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
       <c r="D35" s="7"/>
       <c r="E35" s="10">
         <v>2</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" s="15" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="16.5" customHeight="1">
       <c r="A36" s="4">
         <v>35</v>
       </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
       <c r="D36" s="7"/>
       <c r="E36" s="10">
         <v>2</v>
       </c>
       <c r="F36" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G36" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>53</v>
+      <c r="H36" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="16.5" customHeight="1">
       <c r="A37" s="4">
         <v>36</v>
       </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
       <c r="D37" s="7"/>
       <c r="E37" s="10">
         <v>2</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G37" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>54</v>
+        <v>12</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="16.5" customHeight="1">
       <c r="A38" s="4">
         <v>37</v>
       </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>24</v>
-      </c>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="7"/>
       <c r="E38" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G38" s="15" t="s">
-        <v>11</v>
+        <v>25</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="16.5" customHeight="1">
       <c r="A39" s="4">
         <v>38</v>
       </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="10">
-        <v>3</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G39" s="15" t="s">
-        <v>14</v>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="E39" s="15">
+        <v>2</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="16.5" customHeight="1">
       <c r="A40" s="4">
         <v>39</v>
       </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="10">
-        <v>3</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G40" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>59</v>
+      <c r="B40" s="18"/>
+      <c r="C40" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="16.5" customHeight="1">
       <c r="A41" s="4">
         <v>40</v>
       </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="E41" s="10">
         <v>3</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G41" s="15" t="s">
-        <v>14</v>
+        <v>52</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="16.5" customHeight="1">
       <c r="A42" s="4">
         <v>41</v>
       </c>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
       <c r="D42" s="7"/>
       <c r="E42" s="10">
         <v>3</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G42" s="15" t="s">
-        <v>11</v>
+        <v>52</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="16.5" customHeight="1">
       <c r="A43" s="4">
         <v>42</v>
       </c>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
       <c r="D43" s="7"/>
       <c r="E43" s="10">
         <v>3</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" s="15" t="s">
-        <v>22</v>
+        <v>9</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="16.5" customHeight="1">
       <c r="A44" s="4">
         <v>43</v>
       </c>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
       <c r="D44" s="7"/>
       <c r="E44" s="10">
         <v>3</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="16.5" customHeight="1">
       <c r="A45" s="4">
         <v>44</v>
       </c>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
       <c r="D45" s="7"/>
       <c r="E45" s="10">
         <v>3</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G45" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="16.5" customHeight="1">
       <c r="A46" s="4">
         <v>45</v>
       </c>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
       <c r="D46" s="7"/>
       <c r="E46" s="10">
         <v>3</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G46" s="15" t="s">
-        <v>14</v>
+        <v>52</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="16.5" customHeight="1">
       <c r="A47" s="4">
         <v>46</v>
       </c>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
       <c r="D47" s="7"/>
       <c r="E47" s="10">
         <v>3</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G47" s="15" t="s">
-        <v>16</v>
+        <v>52</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="16.5" customHeight="1">
       <c r="A48" s="4">
         <v>47</v>
       </c>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
       <c r="D48" s="7"/>
       <c r="E48" s="10">
         <v>3</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G48" s="15" t="s">
-        <v>22</v>
+        <v>9</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="16.5" customHeight="1">
       <c r="A49" s="4">
         <v>48</v>
       </c>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
       <c r="D49" s="7"/>
       <c r="E49" s="10">
         <v>3</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G49" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H49" s="14" t="s">
-        <v>68</v>
+        <v>9</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="16.5" customHeight="1">
       <c r="A50" s="4">
         <v>49</v>
       </c>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
       <c r="D50" s="7"/>
       <c r="E50" s="10">
         <v>3</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G50" s="15" t="s">
-        <v>14</v>
+        <v>52</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H50" s="14" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="16.5" customHeight="1">
       <c r="A51" s="4">
         <v>50</v>
       </c>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
       <c r="D51" s="7"/>
       <c r="E51" s="10">
         <v>3</v>
       </c>
       <c r="F51" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G51" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G51" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>70</v>
+      <c r="H51" s="14" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="16.5" customHeight="1">
       <c r="A52" s="4">
         <v>51</v>
       </c>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7" t="s">
-        <v>38</v>
-      </c>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="7"/>
       <c r="E52" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G52" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="16.5" customHeight="1">
       <c r="A53" s="4">
         <v>52</v>
       </c>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="E53" s="10">
         <v>4</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G53" s="15" t="s">
-        <v>11</v>
+        <v>52</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="16.5" customHeight="1">
       <c r="A54" s="4">
         <v>53</v>
       </c>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
       <c r="D54" s="7"/>
       <c r="E54" s="10">
         <v>4</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G54" s="15" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="16.5" customHeight="1">
       <c r="A55" s="4">
         <v>54</v>
       </c>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
       <c r="D55" s="7"/>
       <c r="E55" s="10">
         <v>4</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G55" s="15" t="s">
-        <v>14</v>
+        <v>52</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="16.5" customHeight="1">
       <c r="A56" s="4">
         <v>55</v>
       </c>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>24</v>
-      </c>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="7"/>
       <c r="E56" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G56" s="15" t="s">
-        <v>14</v>
+        <v>52</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="16.5" customHeight="1">
       <c r="A57" s="4">
         <v>56</v>
       </c>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="10">
-        <v>5</v>
-      </c>
-      <c r="F57" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>77</v>
+      <c r="B57" s="18"/>
+      <c r="C57" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D57" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E57" s="24"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="16.5" customHeight="1">
       <c r="A58" s="4">
         <v>57</v>
       </c>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="10">
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E58" s="15">
         <v>5</v>
       </c>
-      <c r="F58" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G58" s="15" t="s">
-        <v>16</v>
+      <c r="F58" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="16.5" customHeight="1">
       <c r="A59" s="4">
         <v>58</v>
       </c>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
       <c r="D59" s="7"/>
-      <c r="E59" s="10">
+      <c r="E59" s="15">
         <v>5</v>
       </c>
-      <c r="F59" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G59" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H59" s="11" t="s">
-        <v>79</v>
+      <c r="F59" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="16.5" customHeight="1">
       <c r="A60" s="4">
         <v>59</v>
       </c>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
       <c r="D60" s="7"/>
-      <c r="E60" s="10">
+      <c r="E60" s="15">
         <v>5</v>
       </c>
-      <c r="F60" s="10" t="s">
+      <c r="F60" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G60" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G60" s="15" t="s">
-        <v>14</v>
-      </c>
       <c r="H60" s="3" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="16.5" customHeight="1">
       <c r="A61" s="4">
         <v>60</v>
       </c>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
       <c r="D61" s="7"/>
       <c r="E61" s="10">
         <v>5</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G61" s="15" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="16.5" customHeight="1">
       <c r="A62" s="4">
         <v>61</v>
       </c>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7" t="s">
-        <v>38</v>
-      </c>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="7"/>
       <c r="E62" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G62" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="16.5" customHeight="1">
       <c r="A63" s="4">
         <v>62</v>
       </c>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
       <c r="D63" s="7"/>
       <c r="E63" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G63" s="15" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="16.5" customHeight="1">
       <c r="A64" s="4">
         <v>63</v>
       </c>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7" t="s">
-        <v>24</v>
-      </c>
+      <c r="B64" s="18"/>
+      <c r="C64" s="18"/>
       <c r="E64" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G64" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>85</v>
+        <v>9</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H64" s="11" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="16.5" customHeight="1">
       <c r="A65" s="4">
         <v>64</v>
       </c>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="18"/>
       <c r="E65" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G65" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="16.5" customHeight="1">
       <c r="A66" s="4">
         <v>65</v>
       </c>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="18"/>
       <c r="E66" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F66" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G66" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G66" s="15" t="s">
-        <v>14</v>
-      </c>
       <c r="H66" s="3" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="16.5" customHeight="1">
       <c r="A67" s="4">
         <v>66</v>
       </c>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="7" t="s">
+        <v>112</v>
+      </c>
       <c r="E67" s="10">
         <v>6</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G67" s="15" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="16.5" customHeight="1">
       <c r="A68" s="4">
         <v>67</v>
       </c>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
       <c r="D68" s="7"/>
       <c r="E68" s="10">
         <v>6</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G68" s="15" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="16.5" customHeight="1">
       <c r="A69" s="4">
         <v>68</v>
       </c>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
       <c r="D69" s="7"/>
       <c r="E69" s="10">
         <v>6</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G69" s="15" t="s">
-        <v>11</v>
+        <v>75</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="16.5" customHeight="1">
       <c r="A70" s="4">
         <v>69</v>
       </c>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="18"/>
       <c r="D70" s="7"/>
       <c r="E70" s="10">
         <v>6</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G70" s="15" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="16.5" customHeight="1">
       <c r="A71" s="4">
         <v>70</v>
       </c>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7" t="s">
-        <v>38</v>
-      </c>
+      <c r="B71" s="18"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="7"/>
       <c r="E71" s="10">
         <v>6</v>
       </c>
       <c r="F71" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G71" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G71" s="15" t="s">
-        <v>14</v>
-      </c>
       <c r="H71" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="16.5" customHeight="1">
       <c r="A72" s="4">
         <v>71</v>
       </c>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="18"/>
       <c r="D72" s="7"/>
       <c r="E72" s="10">
         <v>6</v>
       </c>
       <c r="F72" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G72" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G72" s="15" t="s">
-        <v>11</v>
-      </c>
       <c r="H72" s="3" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="16.5" customHeight="1">
       <c r="A73" s="4">
         <v>72</v>
       </c>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="18"/>
       <c r="E73" s="10">
         <v>6</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G73" s="15" t="s">
-        <v>11</v>
+        <v>25</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="16.5" customHeight="1">
       <c r="A74" s="4">
         <v>73</v>
       </c>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="18"/>
       <c r="D74" s="7"/>
       <c r="E74" s="10">
         <v>6</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G74" s="15" t="s">
-        <v>11</v>
+        <v>52</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="16.5" customHeight="1">
       <c r="A75" s="4">
         <v>74</v>
       </c>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="18"/>
       <c r="D75" s="7"/>
       <c r="E75" s="10">
         <v>6</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G75" s="15" t="s">
-        <v>11</v>
+        <v>52</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="16.5" customHeight="1">
       <c r="A76" s="4">
         <v>75</v>
       </c>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
       <c r="D76" s="7"/>
       <c r="E76" s="10">
         <v>6</v>
       </c>
-      <c r="F76" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G76" s="15" t="s">
-        <v>14</v>
-      </c>
+      <c r="F76" s="7"/>
       <c r="H76" s="3" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="16.5" customHeight="1">
       <c r="A77" s="4">
         <v>76</v>
       </c>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="18"/>
       <c r="D77" s="7"/>
       <c r="E77" s="10">
         <v>6</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G77" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="16.5" customHeight="1">
       <c r="A78" s="4">
         <v>77</v>
       </c>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
       <c r="D78" s="7"/>
       <c r="E78" s="10">
         <v>6</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G78" s="15" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="16.5" customHeight="1">
       <c r="A79" s="4">
         <v>78</v>
       </c>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="18"/>
       <c r="D79" s="7"/>
       <c r="E79" s="10">
         <v>6</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G79" s="15" t="s">
-        <v>11</v>
+        <v>52</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="16.5" customHeight="1">
       <c r="A80" s="4">
         <v>79</v>
       </c>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="18"/>
       <c r="D80" s="7"/>
       <c r="E80" s="10">
         <v>6</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G80" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H80" s="9" t="s">
-        <v>101</v>
+        <v>25</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="16.5" customHeight="1">
       <c r="A81" s="4">
         <v>80</v>
       </c>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="18"/>
       <c r="D81" s="7"/>
       <c r="E81" s="10">
         <v>6</v>
       </c>
-      <c r="F81" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G81" s="15" t="s">
-        <v>14</v>
+      <c r="F81" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="16.5" customHeight="1">
       <c r="A82" s="4">
         <v>81</v>
       </c>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
+      <c r="B82" s="18"/>
+      <c r="C82" s="18"/>
       <c r="D82" s="7"/>
       <c r="E82" s="10">
         <v>6</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G82" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="16.5" customHeight="1">
       <c r="A83" s="4">
         <v>82</v>
       </c>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="18"/>
       <c r="D83" s="7"/>
       <c r="E83" s="10">
         <v>6</v>
       </c>
       <c r="F83" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G83" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G83" s="15" t="s">
-        <v>14</v>
-      </c>
       <c r="H83" s="3" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="16.5" customHeight="1">
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
+      <c r="A84" s="4">
+        <v>83</v>
+      </c>
+      <c r="B84" s="18"/>
+      <c r="C84" s="18"/>
       <c r="D84" s="7"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="10"/>
+      <c r="E84" s="10">
+        <v>6</v>
+      </c>
+      <c r="F84" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="85" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A85" s="4">
+        <v>84</v>
+      </c>
       <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
+      <c r="C85" s="18"/>
       <c r="D85" s="7"/>
-      <c r="E85" s="8"/>
-      <c r="F85" s="10"/>
+      <c r="E85" s="10">
+        <v>6</v>
+      </c>
+      <c r="F85" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="86" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A86" s="4">
+        <v>85</v>
+      </c>
       <c r="B86" s="7"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="8"/>
-      <c r="F86" s="10"/>
+      <c r="C86" s="18"/>
+      <c r="E86" s="10">
+        <v>6</v>
+      </c>
+      <c r="F86" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H86" s="9" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="87" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A87" s="4">
+        <v>86</v>
+      </c>
       <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="8"/>
-      <c r="F87" s="10"/>
+      <c r="C87" s="18"/>
+      <c r="E87" s="10">
+        <v>6</v>
+      </c>
+      <c r="F87" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="88" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A88" s="4">
+        <v>87</v>
+      </c>
       <c r="B88" s="7"/>
-      <c r="C88" s="7"/>
+      <c r="C88" s="18"/>
       <c r="D88" s="7"/>
-      <c r="E88" s="8"/>
-      <c r="F88" s="10"/>
+      <c r="E88" s="10">
+        <v>6</v>
+      </c>
+      <c r="F88" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="89" spans="1:8" ht="16.5" customHeight="1">
       <c r="B89" s="7"/>
@@ -8913,10 +8973,10 @@
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B2:B35"/>
-    <mergeCell ref="C2:C30"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="B2:B84"/>
+    <mergeCell ref="C2:C39"/>
+    <mergeCell ref="C40:C56"/>
+    <mergeCell ref="C57:C88"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/Assets/Dialogs/DialogDB_Sky.xlsx
+++ b/Assets/Dialogs/DialogDB_Sky.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b4d1236af1f427cd/Documents/GitHub/LGHNH_Project/Assets/Dialogs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{6824509D-CB41-4E94-8B25-47217DE6D03B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87373093-3259-427E-BBCE-85833CEB175B}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{6824509D-CB41-4E94-8B25-47217DE6D03B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A024D12C-F06C-4E7E-A12D-DBEEAE145BEC}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1520" yWindow="1520" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sky" sheetId="1" r:id="rId1"/>
@@ -585,18 +585,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -611,6 +599,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -627,6 +627,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -829,8 +833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G77" sqref="G77:G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -877,10 +881,10 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="24" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -903,8 +907,8 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
       <c r="D3" s="6"/>
       <c r="E3" s="4">
         <v>1</v>
@@ -923,8 +927,8 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
       <c r="D4" s="6"/>
       <c r="E4" s="4">
         <v>1</v>
@@ -943,8 +947,8 @@
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4">
         <v>1</v>
@@ -963,8 +967,8 @@
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
       <c r="D6" s="6"/>
       <c r="E6" s="4">
         <v>1</v>
@@ -983,8 +987,8 @@
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4">
         <v>1</v>
@@ -1003,8 +1007,8 @@
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="6"/>
       <c r="E8" s="4">
         <v>1</v>
@@ -1023,8 +1027,8 @@
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4">
         <v>1</v>
@@ -1043,8 +1047,8 @@
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4">
         <v>1</v>
@@ -1063,8 +1067,8 @@
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4">
         <v>1</v>
@@ -1083,8 +1087,8 @@
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
       <c r="D12" s="7"/>
       <c r="E12" s="4">
         <v>1</v>
@@ -1103,8 +1107,8 @@
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="7"/>
       <c r="E13" s="4">
         <v>1</v>
@@ -1123,8 +1127,8 @@
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
       <c r="D14" s="7"/>
       <c r="E14" s="4">
         <v>1</v>
@@ -1143,8 +1147,8 @@
       <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
       <c r="D15" s="7"/>
       <c r="E15" s="4">
         <v>1</v>
@@ -1163,8 +1167,8 @@
       <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="7"/>
       <c r="E16" s="4">
         <v>1</v>
@@ -1183,8 +1187,8 @@
       <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
       <c r="D17" s="7"/>
       <c r="E17" s="4">
         <v>1</v>
@@ -1203,8 +1207,8 @@
       <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="7"/>
       <c r="E18" s="4">
         <v>1</v>
@@ -1223,8 +1227,8 @@
       <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
       <c r="D19" s="7"/>
       <c r="E19" s="4">
         <v>1</v>
@@ -1243,8 +1247,8 @@
       <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
       <c r="D20" s="7"/>
       <c r="E20" s="4">
         <v>1</v>
@@ -1258,8 +1262,8 @@
       <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
       <c r="D21" s="7"/>
       <c r="E21" s="4">
         <v>1</v>
@@ -1273,16 +1277,16 @@
       <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
       <c r="F22"/>
     </row>
     <row r="23" spans="1:8" ht="16.5" customHeight="1">
       <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
       <c r="D23" s="7" t="s">
         <v>34</v>
       </c>
@@ -1292,7 +1296,7 @@
       <c r="F23" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="15" t="s">
         <v>13</v>
       </c>
       <c r="H23" s="3" t="s">
@@ -1303,8 +1307,8 @@
       <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
       <c r="D24" s="7"/>
       <c r="E24" s="10">
         <v>2</v>
@@ -1312,7 +1316,7 @@
       <c r="F24" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="15" t="s">
         <v>13</v>
       </c>
       <c r="H24" s="3" t="s">
@@ -1323,8 +1327,8 @@
       <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
       <c r="D25" s="7"/>
       <c r="E25" s="10">
         <v>2</v>
@@ -1332,7 +1336,7 @@
       <c r="F25" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="15" t="s">
         <v>20</v>
       </c>
       <c r="H25" s="3" t="s">
@@ -1343,8 +1347,8 @@
       <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
       <c r="D26" s="7"/>
       <c r="E26" s="10">
         <v>2</v>
@@ -1352,7 +1356,7 @@
       <c r="F26" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="15" t="s">
         <v>15</v>
       </c>
       <c r="H26" s="3" t="s">
@@ -1363,8 +1367,8 @@
       <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
       <c r="D27" s="7"/>
       <c r="E27" s="10">
         <v>2</v>
@@ -1372,7 +1376,7 @@
       <c r="F27" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="15" t="s">
         <v>20</v>
       </c>
       <c r="H27" s="3" t="s">
@@ -1383,8 +1387,8 @@
       <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
       <c r="D28" s="7"/>
       <c r="E28" s="10">
         <v>2</v>
@@ -1392,7 +1396,7 @@
       <c r="F28" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="15" t="s">
         <v>20</v>
       </c>
       <c r="H28" s="3" t="s">
@@ -1403,8 +1407,8 @@
       <c r="A29" s="4">
         <v>28</v>
       </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
       <c r="D29" s="7"/>
       <c r="E29" s="10">
         <v>2</v>
@@ -1412,7 +1416,7 @@
       <c r="F29" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="15" t="s">
         <v>10</v>
       </c>
       <c r="H29" s="3" t="s">
@@ -1423,13 +1427,14 @@
       <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
       <c r="D30" s="7"/>
       <c r="E30" s="10">
         <v>2</v>
       </c>
       <c r="F30" s="8"/>
+      <c r="G30" s="16"/>
       <c r="H30" s="3" t="s">
         <v>42</v>
       </c>
@@ -1438,13 +1443,14 @@
       <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
       <c r="D31" s="7"/>
       <c r="E31" s="10">
         <v>2</v>
       </c>
       <c r="F31" s="8"/>
+      <c r="G31" s="16"/>
       <c r="H31" s="11" t="s">
         <v>43</v>
       </c>
@@ -1453,8 +1459,8 @@
       <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
       <c r="D32" s="7"/>
       <c r="E32" s="10">
         <v>2</v>
@@ -1462,7 +1468,7 @@
       <c r="F32" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" s="15" t="s">
         <v>10</v>
       </c>
       <c r="H32" s="12" t="s">
@@ -1473,8 +1479,8 @@
       <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
       <c r="D33" s="7"/>
       <c r="E33" s="10">
         <v>2</v>
@@ -1482,7 +1488,7 @@
       <c r="F33" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="15" t="s">
         <v>10</v>
       </c>
       <c r="H33" s="3" t="s">
@@ -1493,8 +1499,8 @@
       <c r="A34" s="4">
         <v>33</v>
       </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
       <c r="D34" s="7"/>
       <c r="E34" s="10">
         <v>2</v>
@@ -1502,7 +1508,7 @@
       <c r="F34" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="G34" s="15" t="s">
         <v>15</v>
       </c>
       <c r="H34" s="3" t="s">
@@ -1514,8 +1520,8 @@
       <c r="A35" s="4">
         <v>34</v>
       </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
       <c r="D35" s="7"/>
       <c r="E35" s="10">
         <v>2</v>
@@ -1523,7 +1529,7 @@
       <c r="F35" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="G35" s="15" t="s">
         <v>20</v>
       </c>
       <c r="H35" s="3" t="s">
@@ -1534,8 +1540,8 @@
       <c r="A36" s="4">
         <v>35</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
       <c r="D36" s="7"/>
       <c r="E36" s="10">
         <v>2</v>
@@ -1543,7 +1549,7 @@
       <c r="F36" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="G36" s="15" t="s">
         <v>13</v>
       </c>
       <c r="H36" s="3" t="s">
@@ -1554,8 +1560,8 @@
       <c r="A37" s="4">
         <v>36</v>
       </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
       <c r="D37" s="7"/>
       <c r="E37" s="10">
         <v>2</v>
@@ -1563,7 +1569,7 @@
       <c r="F37" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="G37" s="15" t="s">
         <v>13</v>
       </c>
       <c r="H37" s="11" t="s">
@@ -1574,8 +1580,8 @@
       <c r="A38" s="4">
         <v>37</v>
       </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
       <c r="D38" s="7"/>
       <c r="E38" s="10">
         <v>2</v>
@@ -1583,7 +1589,7 @@
       <c r="F38" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="G38" s="15" t="s">
         <v>10</v>
       </c>
       <c r="H38" s="3" t="s">
@@ -1594,13 +1600,13 @@
       <c r="A39" s="4">
         <v>38</v>
       </c>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
       <c r="E39" s="15">
         <v>2</v>
       </c>
       <c r="F39" s="3"/>
-      <c r="G39" s="3" t="s">
+      <c r="G39" s="15" t="s">
         <v>100</v>
       </c>
       <c r="H39" s="3" t="s">
@@ -1611,17 +1617,17 @@
       <c r="A40" s="4">
         <v>39</v>
       </c>
-      <c r="B40" s="18"/>
-      <c r="C40" s="20" t="s">
+      <c r="B40" s="23"/>
+      <c r="C40" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="D40" s="21" t="s">
+      <c r="D40" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23" t="s">
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1629,8 +1635,8 @@
       <c r="A41" s="4">
         <v>40</v>
       </c>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
       <c r="D41" s="7" t="s">
         <v>97</v>
       </c>
@@ -1640,7 +1646,7 @@
       <c r="F41" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="G41" s="15" t="s">
         <v>10</v>
       </c>
       <c r="H41" s="3" t="s">
@@ -1651,8 +1657,8 @@
       <c r="A42" s="4">
         <v>41</v>
       </c>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
       <c r="D42" s="7"/>
       <c r="E42" s="10">
         <v>3</v>
@@ -1660,7 +1666,7 @@
       <c r="F42" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="G42" s="15" t="s">
         <v>13</v>
       </c>
       <c r="H42" s="3" t="s">
@@ -1671,8 +1677,8 @@
       <c r="A43" s="4">
         <v>42</v>
       </c>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
       <c r="D43" s="7"/>
       <c r="E43" s="10">
         <v>3</v>
@@ -1680,7 +1686,7 @@
       <c r="F43" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="G43" s="15" t="s">
         <v>10</v>
       </c>
       <c r="H43" s="3" t="s">
@@ -1691,8 +1697,8 @@
       <c r="A44" s="4">
         <v>43</v>
       </c>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
       <c r="D44" s="7"/>
       <c r="E44" s="10">
         <v>3</v>
@@ -1700,7 +1706,7 @@
       <c r="F44" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="G44" s="15" t="s">
         <v>20</v>
       </c>
       <c r="H44" s="3" t="s">
@@ -1711,8 +1717,8 @@
       <c r="A45" s="4">
         <v>44</v>
       </c>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
       <c r="D45" s="7"/>
       <c r="E45" s="10">
         <v>3</v>
@@ -1720,7 +1726,7 @@
       <c r="F45" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="G45" s="15" t="s">
         <v>13</v>
       </c>
       <c r="H45" s="3" t="s">
@@ -1731,8 +1737,8 @@
       <c r="A46" s="4">
         <v>45</v>
       </c>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
       <c r="D46" s="7"/>
       <c r="E46" s="10">
         <v>3</v>
@@ -1740,7 +1746,7 @@
       <c r="F46" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="G46" s="15" t="s">
         <v>13</v>
       </c>
       <c r="H46" s="3" t="s">
@@ -1751,8 +1757,8 @@
       <c r="A47" s="4">
         <v>46</v>
       </c>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
       <c r="D47" s="7"/>
       <c r="E47" s="10">
         <v>3</v>
@@ -1760,7 +1766,7 @@
       <c r="F47" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="G47" s="15" t="s">
         <v>13</v>
       </c>
       <c r="H47" s="3" t="s">
@@ -1771,8 +1777,8 @@
       <c r="A48" s="4">
         <v>47</v>
       </c>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
       <c r="D48" s="7"/>
       <c r="E48" s="10">
         <v>3</v>
@@ -1780,7 +1786,7 @@
       <c r="F48" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="G48" s="15" t="s">
         <v>15</v>
       </c>
       <c r="H48" s="3" t="s">
@@ -1791,8 +1797,8 @@
       <c r="A49" s="4">
         <v>48</v>
       </c>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
       <c r="D49" s="7"/>
       <c r="E49" s="10">
         <v>3</v>
@@ -1800,7 +1806,7 @@
       <c r="F49" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="G49" s="15" t="s">
         <v>20</v>
       </c>
       <c r="H49" s="3" t="s">
@@ -1811,8 +1817,8 @@
       <c r="A50" s="4">
         <v>49</v>
       </c>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
       <c r="D50" s="7"/>
       <c r="E50" s="10">
         <v>3</v>
@@ -1820,7 +1826,7 @@
       <c r="F50" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="G50" s="15" t="s">
         <v>13</v>
       </c>
       <c r="H50" s="14" t="s">
@@ -1831,8 +1837,8 @@
       <c r="A51" s="4">
         <v>50</v>
       </c>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
       <c r="D51" s="7"/>
       <c r="E51" s="10">
         <v>3</v>
@@ -1840,7 +1846,7 @@
       <c r="F51" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="G51" s="15" t="s">
         <v>13</v>
       </c>
       <c r="H51" s="14" t="s">
@@ -1851,8 +1857,8 @@
       <c r="A52" s="4">
         <v>51</v>
       </c>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
       <c r="D52" s="7"/>
       <c r="E52" s="10">
         <v>3</v>
@@ -1860,7 +1866,7 @@
       <c r="F52" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="G52" s="15" t="s">
         <v>15</v>
       </c>
       <c r="H52" s="3" t="s">
@@ -1871,8 +1877,8 @@
       <c r="A53" s="4">
         <v>52</v>
       </c>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="23"/>
       <c r="D53" s="7" t="s">
         <v>34</v>
       </c>
@@ -1882,7 +1888,7 @@
       <c r="F53" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G53" s="3" t="s">
+      <c r="G53" s="15" t="s">
         <v>13</v>
       </c>
       <c r="H53" s="3" t="s">
@@ -1893,8 +1899,8 @@
       <c r="A54" s="4">
         <v>53</v>
       </c>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="23"/>
       <c r="D54" s="7"/>
       <c r="E54" s="10">
         <v>4</v>
@@ -1902,7 +1908,7 @@
       <c r="F54" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G54" s="3" t="s">
+      <c r="G54" s="15" t="s">
         <v>10</v>
       </c>
       <c r="H54" s="3" t="s">
@@ -1913,8 +1919,8 @@
       <c r="A55" s="4">
         <v>54</v>
       </c>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="23"/>
       <c r="D55" s="7"/>
       <c r="E55" s="10">
         <v>4</v>
@@ -1922,7 +1928,7 @@
       <c r="F55" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G55" s="3" t="s">
+      <c r="G55" s="15" t="s">
         <v>13</v>
       </c>
       <c r="H55" s="3" t="s">
@@ -1933,8 +1939,8 @@
       <c r="A56" s="4">
         <v>55</v>
       </c>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
       <c r="D56" s="7"/>
       <c r="E56" s="10">
         <v>4</v>
@@ -1942,7 +1948,7 @@
       <c r="F56" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G56" s="3" t="s">
+      <c r="G56" s="15" t="s">
         <v>13</v>
       </c>
       <c r="H56" s="3" t="s">
@@ -1953,17 +1959,17 @@
       <c r="A57" s="4">
         <v>56</v>
       </c>
-      <c r="B57" s="18"/>
-      <c r="C57" s="20" t="s">
+      <c r="B57" s="23"/>
+      <c r="C57" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D57" s="24" t="s">
+      <c r="D57" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="E57" s="24"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25" t="s">
+      <c r="E57" s="20"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1971,8 +1977,8 @@
       <c r="A58" s="4">
         <v>57</v>
       </c>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="23"/>
       <c r="D58" s="7" t="s">
         <v>97</v>
       </c>
@@ -1982,7 +1988,7 @@
       <c r="F58" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="G58" s="15" t="s">
         <v>13</v>
       </c>
       <c r="H58" s="3" t="s">
@@ -1993,8 +1999,8 @@
       <c r="A59" s="4">
         <v>58</v>
       </c>
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="23"/>
       <c r="D59" s="7"/>
       <c r="E59" s="15">
         <v>5</v>
@@ -2002,7 +2008,7 @@
       <c r="F59" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="G59" s="3" t="s">
+      <c r="G59" s="15" t="s">
         <v>13</v>
       </c>
       <c r="H59" s="3" t="s">
@@ -2013,8 +2019,8 @@
       <c r="A60" s="4">
         <v>59</v>
       </c>
-      <c r="B60" s="18"/>
-      <c r="C60" s="18"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="23"/>
       <c r="D60" s="7"/>
       <c r="E60" s="15">
         <v>5</v>
@@ -2022,7 +2028,7 @@
       <c r="F60" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="G60" s="3" t="s">
+      <c r="G60" s="15" t="s">
         <v>13</v>
       </c>
       <c r="H60" s="3" t="s">
@@ -2033,8 +2039,8 @@
       <c r="A61" s="4">
         <v>60</v>
       </c>
-      <c r="B61" s="18"/>
-      <c r="C61" s="18"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="23"/>
       <c r="D61" s="7"/>
       <c r="E61" s="10">
         <v>5</v>
@@ -2042,7 +2048,7 @@
       <c r="F61" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G61" s="3" t="s">
+      <c r="G61" s="15" t="s">
         <v>13</v>
       </c>
       <c r="H61" s="3" t="s">
@@ -2053,8 +2059,8 @@
       <c r="A62" s="4">
         <v>61</v>
       </c>
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="23"/>
       <c r="D62" s="7"/>
       <c r="E62" s="10">
         <v>5</v>
@@ -2062,7 +2068,7 @@
       <c r="F62" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G62" s="3" t="s">
+      <c r="G62" s="15" t="s">
         <v>20</v>
       </c>
       <c r="H62" s="3" t="s">
@@ -2073,8 +2079,8 @@
       <c r="A63" s="4">
         <v>62</v>
       </c>
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="23"/>
       <c r="D63" s="7"/>
       <c r="E63" s="10">
         <v>5</v>
@@ -2082,7 +2088,7 @@
       <c r="F63" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G63" s="3" t="s">
+      <c r="G63" s="15" t="s">
         <v>15</v>
       </c>
       <c r="H63" s="3" t="s">
@@ -2093,15 +2099,15 @@
       <c r="A64" s="4">
         <v>63</v>
       </c>
-      <c r="B64" s="18"/>
-      <c r="C64" s="18"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="23"/>
       <c r="E64" s="10">
         <v>5</v>
       </c>
       <c r="F64" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G64" s="3" t="s">
+      <c r="G64" s="15" t="s">
         <v>13</v>
       </c>
       <c r="H64" s="11" t="s">
@@ -2112,15 +2118,15 @@
       <c r="A65" s="4">
         <v>64</v>
       </c>
-      <c r="B65" s="18"/>
-      <c r="C65" s="18"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="23"/>
       <c r="E65" s="10">
         <v>5</v>
       </c>
       <c r="F65" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G65" s="3" t="s">
+      <c r="G65" s="15" t="s">
         <v>13</v>
       </c>
       <c r="H65" s="3" t="s">
@@ -2131,15 +2137,15 @@
       <c r="A66" s="4">
         <v>65</v>
       </c>
-      <c r="B66" s="18"/>
-      <c r="C66" s="18"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="23"/>
       <c r="E66" s="10">
         <v>5</v>
       </c>
       <c r="F66" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G66" s="3" t="s">
+      <c r="G66" s="15" t="s">
         <v>13</v>
       </c>
       <c r="H66" s="3" t="s">
@@ -2150,8 +2156,8 @@
       <c r="A67" s="4">
         <v>66</v>
       </c>
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="23"/>
       <c r="D67" s="7" t="s">
         <v>112</v>
       </c>
@@ -2161,7 +2167,7 @@
       <c r="F67" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G67" s="3" t="s">
+      <c r="G67" s="15" t="s">
         <v>13</v>
       </c>
       <c r="H67" s="3" t="s">
@@ -2172,8 +2178,8 @@
       <c r="A68" s="4">
         <v>67</v>
       </c>
-      <c r="B68" s="18"/>
-      <c r="C68" s="18"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="23"/>
       <c r="D68" s="7"/>
       <c r="E68" s="10">
         <v>6</v>
@@ -2181,7 +2187,7 @@
       <c r="F68" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G68" s="3" t="s">
+      <c r="G68" s="15" t="s">
         <v>10</v>
       </c>
       <c r="H68" s="3" t="s">
@@ -2192,8 +2198,8 @@
       <c r="A69" s="4">
         <v>68</v>
       </c>
-      <c r="B69" s="18"/>
-      <c r="C69" s="18"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="23"/>
       <c r="D69" s="7"/>
       <c r="E69" s="10">
         <v>6</v>
@@ -2201,7 +2207,7 @@
       <c r="F69" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="G69" s="3" t="s">
+      <c r="G69" s="15" t="s">
         <v>13</v>
       </c>
       <c r="H69" s="3" t="s">
@@ -2212,8 +2218,8 @@
       <c r="A70" s="4">
         <v>69</v>
       </c>
-      <c r="B70" s="18"/>
-      <c r="C70" s="18"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="23"/>
       <c r="D70" s="7"/>
       <c r="E70" s="10">
         <v>6</v>
@@ -2221,7 +2227,7 @@
       <c r="F70" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G70" s="3" t="s">
+      <c r="G70" s="15" t="s">
         <v>13</v>
       </c>
       <c r="H70" s="3" t="s">
@@ -2232,8 +2238,8 @@
       <c r="A71" s="4">
         <v>70</v>
       </c>
-      <c r="B71" s="18"/>
-      <c r="C71" s="18"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="23"/>
       <c r="D71" s="7"/>
       <c r="E71" s="10">
         <v>6</v>
@@ -2241,7 +2247,7 @@
       <c r="F71" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="G71" s="3" t="s">
+      <c r="G71" s="15" t="s">
         <v>13</v>
       </c>
       <c r="H71" s="3" t="s">
@@ -2252,8 +2258,8 @@
       <c r="A72" s="4">
         <v>71</v>
       </c>
-      <c r="B72" s="18"/>
-      <c r="C72" s="18"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="23"/>
       <c r="D72" s="7"/>
       <c r="E72" s="10">
         <v>6</v>
@@ -2261,7 +2267,7 @@
       <c r="F72" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="G72" s="3" t="s">
+      <c r="G72" s="15" t="s">
         <v>13</v>
       </c>
       <c r="H72" s="3" t="s">
@@ -2272,15 +2278,15 @@
       <c r="A73" s="4">
         <v>72</v>
       </c>
-      <c r="B73" s="18"/>
-      <c r="C73" s="18"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="23"/>
       <c r="E73" s="10">
         <v>6</v>
       </c>
       <c r="F73" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G73" s="3" t="s">
+      <c r="G73" s="15" t="s">
         <v>10</v>
       </c>
       <c r="H73" s="3" t="s">
@@ -2291,8 +2297,8 @@
       <c r="A74" s="4">
         <v>73</v>
       </c>
-      <c r="B74" s="18"/>
-      <c r="C74" s="18"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="23"/>
       <c r="D74" s="7"/>
       <c r="E74" s="10">
         <v>6</v>
@@ -2300,7 +2306,7 @@
       <c r="F74" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G74" s="3" t="s">
+      <c r="G74" s="15" t="s">
         <v>10</v>
       </c>
       <c r="H74" s="3" t="s">
@@ -2311,8 +2317,8 @@
       <c r="A75" s="4">
         <v>74</v>
       </c>
-      <c r="B75" s="18"/>
-      <c r="C75" s="18"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="23"/>
       <c r="D75" s="7"/>
       <c r="E75" s="10">
         <v>6</v>
@@ -2320,7 +2326,7 @@
       <c r="F75" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G75" s="3" t="s">
+      <c r="G75" s="15" t="s">
         <v>10</v>
       </c>
       <c r="H75" s="3" t="s">
@@ -2331,8 +2337,8 @@
       <c r="A76" s="4">
         <v>75</v>
       </c>
-      <c r="B76" s="18"/>
-      <c r="C76" s="18"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="23"/>
       <c r="D76" s="7"/>
       <c r="E76" s="10">
         <v>6</v>
@@ -2346,8 +2352,8 @@
       <c r="A77" s="4">
         <v>76</v>
       </c>
-      <c r="B77" s="18"/>
-      <c r="C77" s="18"/>
+      <c r="B77" s="23"/>
+      <c r="C77" s="23"/>
       <c r="D77" s="7"/>
       <c r="E77" s="10">
         <v>6</v>
@@ -2355,7 +2361,7 @@
       <c r="F77" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G77" s="3" t="s">
+      <c r="G77" s="15" t="s">
         <v>13</v>
       </c>
       <c r="H77" s="3" t="s">
@@ -2366,8 +2372,8 @@
       <c r="A78" s="4">
         <v>77</v>
       </c>
-      <c r="B78" s="18"/>
-      <c r="C78" s="18"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="23"/>
       <c r="D78" s="7"/>
       <c r="E78" s="10">
         <v>6</v>
@@ -2375,7 +2381,7 @@
       <c r="F78" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G78" s="3" t="s">
+      <c r="G78" s="15" t="s">
         <v>10</v>
       </c>
       <c r="H78" s="3" t="s">
@@ -2386,8 +2392,8 @@
       <c r="A79" s="4">
         <v>78</v>
       </c>
-      <c r="B79" s="18"/>
-      <c r="C79" s="18"/>
+      <c r="B79" s="23"/>
+      <c r="C79" s="23"/>
       <c r="D79" s="7"/>
       <c r="E79" s="10">
         <v>6</v>
@@ -2395,7 +2401,7 @@
       <c r="F79" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G79" s="3" t="s">
+      <c r="G79" s="15" t="s">
         <v>10</v>
       </c>
       <c r="H79" s="3" t="s">
@@ -2406,8 +2412,8 @@
       <c r="A80" s="4">
         <v>79</v>
       </c>
-      <c r="B80" s="18"/>
-      <c r="C80" s="18"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="23"/>
       <c r="D80" s="7"/>
       <c r="E80" s="10">
         <v>6</v>
@@ -2415,7 +2421,7 @@
       <c r="F80" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G80" s="3" t="s">
+      <c r="G80" s="15" t="s">
         <v>10</v>
       </c>
       <c r="H80" s="3" t="s">
@@ -2426,8 +2432,8 @@
       <c r="A81" s="4">
         <v>80</v>
       </c>
-      <c r="B81" s="18"/>
-      <c r="C81" s="18"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="23"/>
       <c r="D81" s="7"/>
       <c r="E81" s="10">
         <v>6</v>
@@ -2435,7 +2441,7 @@
       <c r="F81" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G81" s="3" t="s">
+      <c r="G81" s="15" t="s">
         <v>10</v>
       </c>
       <c r="H81" s="3" t="s">
@@ -2446,8 +2452,8 @@
       <c r="A82" s="4">
         <v>81</v>
       </c>
-      <c r="B82" s="18"/>
-      <c r="C82" s="18"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="23"/>
       <c r="D82" s="7"/>
       <c r="E82" s="10">
         <v>6</v>
@@ -2455,7 +2461,7 @@
       <c r="F82" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G82" s="3" t="s">
+      <c r="G82" s="15" t="s">
         <v>13</v>
       </c>
       <c r="H82" s="3" t="s">
@@ -2466,8 +2472,8 @@
       <c r="A83" s="4">
         <v>82</v>
       </c>
-      <c r="B83" s="18"/>
-      <c r="C83" s="18"/>
+      <c r="B83" s="23"/>
+      <c r="C83" s="23"/>
       <c r="D83" s="7"/>
       <c r="E83" s="10">
         <v>6</v>
@@ -2475,7 +2481,7 @@
       <c r="F83" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G83" s="3" t="s">
+      <c r="G83" s="15" t="s">
         <v>13</v>
       </c>
       <c r="H83" s="3" t="s">
@@ -2486,8 +2492,8 @@
       <c r="A84" s="4">
         <v>83</v>
       </c>
-      <c r="B84" s="18"/>
-      <c r="C84" s="18"/>
+      <c r="B84" s="23"/>
+      <c r="C84" s="23"/>
       <c r="D84" s="7"/>
       <c r="E84" s="10">
         <v>6</v>
@@ -2495,7 +2501,7 @@
       <c r="F84" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G84" s="3" t="s">
+      <c r="G84" s="15" t="s">
         <v>10</v>
       </c>
       <c r="H84" s="3" t="s">
@@ -2507,7 +2513,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="7"/>
-      <c r="C85" s="18"/>
+      <c r="C85" s="23"/>
       <c r="D85" s="7"/>
       <c r="E85" s="10">
         <v>6</v>
@@ -2515,7 +2521,7 @@
       <c r="F85" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G85" s="3" t="s">
+      <c r="G85" s="15" t="s">
         <v>10</v>
       </c>
       <c r="H85" s="3" t="s">
@@ -2527,14 +2533,14 @@
         <v>85</v>
       </c>
       <c r="B86" s="7"/>
-      <c r="C86" s="18"/>
+      <c r="C86" s="23"/>
       <c r="E86" s="10">
         <v>6</v>
       </c>
       <c r="F86" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G86" s="3" t="s">
+      <c r="G86" s="15" t="s">
         <v>13</v>
       </c>
       <c r="H86" s="9" t="s">
@@ -2546,14 +2552,14 @@
         <v>86</v>
       </c>
       <c r="B87" s="7"/>
-      <c r="C87" s="18"/>
+      <c r="C87" s="23"/>
       <c r="E87" s="10">
         <v>6</v>
       </c>
       <c r="F87" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G87" s="3" t="s">
+      <c r="G87" s="15" t="s">
         <v>13</v>
       </c>
       <c r="H87" s="3" t="s">
@@ -2565,7 +2571,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="7"/>
-      <c r="C88" s="18"/>
+      <c r="C88" s="23"/>
       <c r="D88" s="7"/>
       <c r="E88" s="10">
         <v>6</v>
@@ -2573,7 +2579,7 @@
       <c r="F88" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G88" s="3" t="s">
+      <c r="G88" s="15" t="s">
         <v>13</v>
       </c>
       <c r="H88" s="3" t="s">

--- a/Assets/Dialogs/DialogDB_Sky.xlsx
+++ b/Assets/Dialogs/DialogDB_Sky.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\230831_2146\LGHNH_Project\Assets\Dialogs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\230913_1622\LGHNH_Project\Assets\Dialogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC7D20D-5B3D-46E4-A4E8-F41A719C2538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0CCDDF-28B7-4343-A913-87D364715CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="119">
   <si>
     <t>순번</t>
   </si>
@@ -68,21 +68,12 @@
     <t>리비</t>
   </si>
   <si>
-    <t>기쁨</t>
-  </si>
-  <si>
     <t>여행아이</t>
   </si>
   <si>
-    <t>기본</t>
-  </si>
-  <si>
     <t>응. 마법 학교 학생증, 요술 지팡이... 엇!</t>
   </si>
   <si>
-    <t>피곤</t>
-  </si>
-  <si>
     <t>포션 플라스크를 두고온것 같아...</t>
   </si>
   <si>
@@ -93,9 +84,6 @@
   </si>
   <si>
     <t>그보다 말이야, 이곳 알라야 마운틴. 겉보기론 별 이상이 없어 보이는데 말이지.</t>
-  </si>
-  <si>
-    <t>우울</t>
   </si>
   <si>
     <t>맞아요. 당장 저희 마을도 오염때문에 잔뜩 고생 중이고요.</t>
@@ -302,9 +290,6 @@
   </si>
   <si>
     <t>맵을 잘 살피고 희귀한 알로대나무 잎사귀 3개를 찾아 터치해 보세요.</t>
-  </si>
-  <si>
-    <t>암전</t>
   </si>
   <si>
     <t>(일행이 함께 솔티 마을로 이동한다)</t>
@@ -420,7 +405,31 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>완성물</t>
+    <t>Joy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tired</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Perfect</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sad</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -428,7 +437,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -507,6 +516,12 @@
       <name val="굴림"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="7">
@@ -652,7 +667,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -667,9 +682,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -713,22 +725,28 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -737,10 +755,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -960,8 +981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H77" sqref="H77"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -970,1815 +991,1914 @@
     <col min="2" max="3" width="14.81640625" customWidth="1"/>
     <col min="4" max="4" width="18.08984375" customWidth="1"/>
     <col min="5" max="5" width="8.08984375" customWidth="1"/>
-    <col min="6" max="6" width="12.26953125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="12.26953125" style="5" customWidth="1"/>
     <col min="7" max="7" width="20.54296875" customWidth="1"/>
     <col min="8" max="8" width="90" customWidth="1"/>
-    <col min="9" max="26" width="8.7265625" customWidth="1"/>
+    <col min="9" max="9" width="8.7265625" style="5" customWidth="1"/>
+    <col min="10" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>6</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>118</v>
       </c>
       <c r="K1" s="1"/>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A2" s="9">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="8">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="8">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="8">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8">
+        <v>1</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8">
+        <v>1</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="8">
+        <v>1</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="8">
+        <v>1</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="8">
+        <v>1</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="8">
+        <v>1</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="8">
+        <v>1</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="8">
+        <v>1</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="8">
+        <v>1</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="8">
+        <v>1</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A20" s="8">
+        <v>19</v>
+      </c>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="8">
+        <v>1</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A21" s="8">
+        <v>20</v>
+      </c>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="8">
+        <v>1</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A22" s="8">
+        <v>21</v>
+      </c>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="8">
+        <v>2</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A23" s="8">
+        <v>22</v>
+      </c>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="8">
+        <v>2</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A24" s="8">
+        <v>23</v>
+      </c>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="8">
+        <v>2</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I24" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A25" s="8">
+        <v>24</v>
+      </c>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A26" s="8">
+        <v>25</v>
+      </c>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="8">
+        <v>2</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="I26" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A27" s="8">
+        <v>26</v>
+      </c>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="8">
+        <v>2</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I27" s="23"/>
+    </row>
+    <row r="28" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A28" s="8">
+        <v>27</v>
+      </c>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="8">
+        <v>2</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A29" s="8">
+        <v>28</v>
+      </c>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="8">
+        <v>2</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A30" s="8">
+        <v>29</v>
+      </c>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="8">
+        <v>2</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A31" s="8">
+        <v>30</v>
+      </c>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="8">
+        <v>2</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A32" s="8">
+        <v>31</v>
+      </c>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="8">
+        <v>2</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I32" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A33" s="8">
+        <v>32</v>
+      </c>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="8">
+        <v>2</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A34" s="8">
+        <v>33</v>
+      </c>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="8">
+        <v>2</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I34" s="24"/>
+    </row>
+    <row r="35" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A35" s="8">
+        <v>34</v>
+      </c>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="8">
+        <v>2</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A36" s="8">
+        <v>35</v>
+      </c>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="8">
+        <v>2</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A37" s="8">
+        <v>36</v>
+      </c>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8">
+        <v>2</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A38" s="8">
+        <v>37</v>
+      </c>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="8">
+        <v>2</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I38" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A39" s="8">
+        <v>38</v>
+      </c>
+      <c r="B39" s="26"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A40" s="8">
+        <v>39</v>
+      </c>
+      <c r="B40" s="26"/>
+      <c r="C40" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E40" s="18"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="9">
-        <v>1</v>
-      </c>
-      <c r="F2" s="9" t="s">
+    </row>
+    <row r="41" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A41" s="8">
+        <v>40</v>
+      </c>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E41" s="15">
+        <v>3</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="I41" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A42" s="8">
+        <v>41</v>
+      </c>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="15">
+        <v>3</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I42" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A43" s="8">
+        <v>42</v>
+      </c>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="15">
+        <v>3</v>
+      </c>
+      <c r="F43" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G43" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A44" s="8">
+        <v>43</v>
+      </c>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="15">
+        <v>3</v>
+      </c>
+      <c r="F44" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A3" s="9">
-        <v>2</v>
-      </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="9">
-        <v>1</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A4" s="9">
+      <c r="G44" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A45" s="8">
+        <v>44</v>
+      </c>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="15">
         <v>3</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="9">
-        <v>1</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A5" s="9">
+      <c r="F45" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A46" s="8">
+        <v>45</v>
+      </c>
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="15">
+        <v>3</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A47" s="8">
+        <v>46</v>
+      </c>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="15">
+        <v>3</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I47" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A48" s="8">
+        <v>47</v>
+      </c>
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="15">
+        <v>3</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A49" s="8">
+        <v>48</v>
+      </c>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="15">
+        <v>3</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A50" s="8">
+        <v>49</v>
+      </c>
+      <c r="B50" s="26"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="15">
+        <v>3</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I50" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A51" s="8">
+        <v>50</v>
+      </c>
+      <c r="B51" s="26"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="15">
+        <v>3</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I51" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A52" s="8">
+        <v>51</v>
+      </c>
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="15">
+        <v>3</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A53" s="8">
+        <v>52</v>
+      </c>
+      <c r="B53" s="26"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E53" s="15">
         <v>4</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9">
-        <v>1</v>
-      </c>
-      <c r="F5" s="9" t="s">
+      <c r="F53" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I53" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A54" s="8">
+        <v>53</v>
+      </c>
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="15">
+        <v>4</v>
+      </c>
+      <c r="F54" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G54" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A55" s="8">
+        <v>54</v>
+      </c>
+      <c r="B55" s="26"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="15">
+        <v>4</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I55" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A56" s="8">
+        <v>55</v>
+      </c>
+      <c r="B56" s="26"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="15">
+        <v>4</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="I56" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A57" s="8">
+        <v>56</v>
+      </c>
+      <c r="B57" s="26"/>
+      <c r="C57" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E57" s="10"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A58" s="8">
+        <v>57</v>
+      </c>
+      <c r="B58" s="26"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E58" s="16">
+        <v>5</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H58" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="I58" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A59" s="8">
+        <v>58</v>
+      </c>
+      <c r="B59" s="26"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="16">
+        <v>5</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H59" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="I59" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A60" s="8">
+        <v>59</v>
+      </c>
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="16">
+        <v>5</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H60" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="I60" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A61" s="8">
+        <v>60</v>
+      </c>
+      <c r="B61" s="26"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="15">
+        <v>5</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A62" s="8">
+        <v>61</v>
+      </c>
+      <c r="B62" s="26"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="15">
+        <v>5</v>
+      </c>
+      <c r="F62" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A6" s="9">
+      <c r="G62" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="H62" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A63" s="8">
+        <v>62</v>
+      </c>
+      <c r="B63" s="26"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="15">
         <v>5</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="9">
-        <v>1</v>
-      </c>
-      <c r="F6" s="9" t="s">
+      <c r="F63" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G63" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A64" s="8">
+        <v>63</v>
+      </c>
+      <c r="B64" s="26"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="15">
+        <v>5</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H64" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A65" s="8">
+        <v>64</v>
+      </c>
+      <c r="B65" s="26"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="15">
+        <v>5</v>
+      </c>
+      <c r="F65" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A7" s="9">
+      <c r="G65" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H65" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A66" s="8">
+        <v>65</v>
+      </c>
+      <c r="B66" s="26"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="15">
+        <v>5</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H66" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A67" s="8">
+        <v>66</v>
+      </c>
+      <c r="B67" s="26"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E67" s="15">
         <v>6</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9">
-        <v>1</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="9" t="s">
+      <c r="F67" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H67" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A68" s="8">
+        <v>67</v>
+      </c>
+      <c r="B68" s="26"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="15">
+        <v>6</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H68" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A69" s="8">
+        <v>68</v>
+      </c>
+      <c r="B69" s="26"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="15">
+        <v>6</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H69" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A70" s="8">
+        <v>69</v>
+      </c>
+      <c r="B70" s="26"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="15">
+        <v>6</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H70" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A71" s="8">
+        <v>70</v>
+      </c>
+      <c r="B71" s="26"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="15">
+        <v>6</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H71" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="I71" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A72" s="8">
+        <v>71</v>
+      </c>
+      <c r="B72" s="26"/>
+      <c r="C72" s="26"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="15">
+        <v>6</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H72" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="I72" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A73" s="8">
+        <v>72</v>
+      </c>
+      <c r="B73" s="26"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="15">
+        <v>6</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H73" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I73" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A74" s="8">
+        <v>73</v>
+      </c>
+      <c r="B74" s="26"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="15">
+        <v>6</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G74" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H74" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I74" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A75" s="8">
+        <v>74</v>
+      </c>
+      <c r="B75" s="26"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="15">
+        <v>6</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H75" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I75" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A76" s="8">
+        <v>75</v>
+      </c>
+      <c r="B76" s="26"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="15">
+        <v>6</v>
+      </c>
+      <c r="F76" s="8"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A77" s="8">
+        <v>76</v>
+      </c>
+      <c r="B77" s="26"/>
+      <c r="C77" s="26"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="15">
+        <v>6</v>
+      </c>
+      <c r="F77" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A8" s="9">
-        <v>7</v>
-      </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="9">
-        <v>1</v>
-      </c>
-      <c r="F8" s="9" t="s">
+      <c r="G77" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="H77" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A78" s="8">
+        <v>77</v>
+      </c>
+      <c r="B78" s="26"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="15">
+        <v>6</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H78" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A79" s="8">
+        <v>78</v>
+      </c>
+      <c r="B79" s="26"/>
+      <c r="C79" s="26"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="15">
+        <v>6</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H79" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="I79" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A80" s="8">
+        <v>79</v>
+      </c>
+      <c r="B80" s="26"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="15">
+        <v>6</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G80" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H80" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I80" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A81" s="8">
+        <v>80</v>
+      </c>
+      <c r="B81" s="26"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="15">
+        <v>6</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G81" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H81" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="I81" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A82" s="8">
+        <v>81</v>
+      </c>
+      <c r="B82" s="26"/>
+      <c r="C82" s="26"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="15">
+        <v>6</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H82" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A83" s="8">
+        <v>82</v>
+      </c>
+      <c r="B83" s="26"/>
+      <c r="C83" s="26"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="15">
+        <v>6</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G83" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H83" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="I83" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A84" s="8">
+        <v>83</v>
+      </c>
+      <c r="B84" s="26"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="15">
+        <v>6</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G84" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H84" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="I84" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A85" s="8">
+        <v>84</v>
+      </c>
+      <c r="B85" s="27"/>
+      <c r="C85" s="26"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="15">
+        <v>6</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H85" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A86" s="8">
+        <v>85</v>
+      </c>
+      <c r="B86" s="27"/>
+      <c r="C86" s="26"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="15">
+        <v>6</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G86" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H86" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I86" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A87" s="8">
+        <v>86</v>
+      </c>
+      <c r="B87" s="27"/>
+      <c r="C87" s="26"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="15">
+        <v>6</v>
+      </c>
+      <c r="F87" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A9" s="9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9">
-        <v>1</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A10" s="9">
-        <v>9</v>
-      </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9">
-        <v>1</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A11" s="9">
+      <c r="G87" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H87" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A88" s="8">
+        <v>87</v>
+      </c>
+      <c r="B88" s="28"/>
+      <c r="C88" s="30"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="15">
+        <v>6</v>
+      </c>
+      <c r="F88" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9">
-        <v>1</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A12" s="9">
-        <v>11</v>
-      </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="9">
-        <v>1</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A13" s="9">
-        <v>12</v>
-      </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="9">
-        <v>1</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A14" s="9">
-        <v>13</v>
-      </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="9">
-        <v>1</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A15" s="9">
-        <v>14</v>
-      </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="9">
-        <v>1</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A16" s="9">
-        <v>15</v>
-      </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="9">
-        <v>1</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A17" s="9">
-        <v>16</v>
-      </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="9">
-        <v>1</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A18" s="9">
-        <v>17</v>
-      </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="9">
-        <v>1</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A19" s="9">
-        <v>18</v>
-      </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="9">
-        <v>1</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A20" s="9">
-        <v>19</v>
-      </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="9">
-        <v>1</v>
-      </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A21" s="9">
-        <v>20</v>
-      </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="9">
-        <v>1</v>
-      </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A22" s="9">
-        <v>21</v>
-      </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="9">
-        <v>2</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A23" s="9">
-        <v>22</v>
-      </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="9">
-        <v>2</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A24" s="9">
-        <v>23</v>
-      </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="9">
-        <v>2</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A25" s="9">
-        <v>24</v>
-      </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A26" s="9">
-        <v>25</v>
-      </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="9">
-        <v>2</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A27" s="9">
-        <v>26</v>
-      </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="9">
-        <v>2</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A28" s="9">
-        <v>27</v>
-      </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="9">
-        <v>2</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A29" s="9">
-        <v>28</v>
-      </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="9">
-        <v>2</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A30" s="9">
-        <v>29</v>
-      </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="9">
-        <v>2</v>
-      </c>
-      <c r="F30" s="9"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A31" s="9">
-        <v>30</v>
-      </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="9">
-        <v>2</v>
-      </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A32" s="9">
-        <v>31</v>
-      </c>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="9">
-        <v>2</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H32" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A33" s="9">
-        <v>32</v>
-      </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="9">
-        <v>2</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G33" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A34" s="9">
-        <v>33</v>
-      </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="9">
-        <v>2</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="I34" s="5"/>
-    </row>
-    <row r="35" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A35" s="9">
-        <v>34</v>
-      </c>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="9">
-        <v>2</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A36" s="9">
-        <v>35</v>
-      </c>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="9">
-        <v>2</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A37" s="9">
-        <v>36</v>
-      </c>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9">
-        <v>2</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H37" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A38" s="9">
-        <v>37</v>
-      </c>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="9">
-        <v>2</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G38" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A39" s="9">
-        <v>38</v>
-      </c>
-      <c r="B39" s="22"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="H39" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A40" s="9">
-        <v>39</v>
-      </c>
-      <c r="B40" s="22"/>
-      <c r="C40" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D40" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="E40" s="19"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A41" s="9">
-        <v>40</v>
-      </c>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E41" s="16">
-        <v>3</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G41" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A42" s="9">
-        <v>41</v>
-      </c>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="16">
-        <v>3</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G42" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H42" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A43" s="9">
-        <v>42</v>
-      </c>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="16">
-        <v>3</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G43" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A44" s="9">
-        <v>43</v>
-      </c>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="16">
-        <v>3</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A45" s="9">
-        <v>44</v>
-      </c>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="16">
-        <v>3</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H45" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A46" s="9">
-        <v>45</v>
-      </c>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="16">
-        <v>3</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G46" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H46" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A47" s="9">
-        <v>46</v>
-      </c>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="16">
-        <v>3</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G47" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A48" s="9">
-        <v>47</v>
-      </c>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="16">
-        <v>3</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G48" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H48" s="11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A49" s="9">
-        <v>48</v>
-      </c>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="16">
-        <v>3</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G49" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H49" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A50" s="9">
-        <v>49</v>
-      </c>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="16">
-        <v>3</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G50" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H50" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A51" s="9">
-        <v>50</v>
-      </c>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="16">
-        <v>3</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G51" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H51" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A52" s="9">
-        <v>51</v>
-      </c>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="16">
-        <v>3</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H52" s="11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A53" s="9">
-        <v>52</v>
-      </c>
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E53" s="16">
-        <v>4</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G53" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H53" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A54" s="9">
-        <v>53</v>
-      </c>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="16">
-        <v>4</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G54" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H54" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A55" s="9">
-        <v>54</v>
-      </c>
-      <c r="B55" s="22"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="16">
-        <v>4</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G55" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H55" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A56" s="9">
-        <v>55</v>
-      </c>
-      <c r="B56" s="22"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="16">
-        <v>4</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G56" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H56" s="11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A57" s="9">
-        <v>56</v>
-      </c>
-      <c r="B57" s="22"/>
-      <c r="C57" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="E57" s="11"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A58" s="9">
-        <v>57</v>
-      </c>
-      <c r="B58" s="22"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E58" s="17">
-        <v>5</v>
-      </c>
-      <c r="F58" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="G58" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H58" s="11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A59" s="9">
-        <v>58</v>
-      </c>
-      <c r="B59" s="22"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="17">
-        <v>5</v>
-      </c>
-      <c r="F59" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="G59" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H59" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A60" s="9">
-        <v>59</v>
-      </c>
-      <c r="B60" s="22"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="17">
-        <v>5</v>
-      </c>
-      <c r="F60" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="G60" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H60" s="11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A61" s="9">
-        <v>60</v>
-      </c>
-      <c r="B61" s="22"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="16">
-        <v>5</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G61" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H61" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A62" s="9">
-        <v>61</v>
-      </c>
-      <c r="B62" s="22"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="16">
-        <v>5</v>
-      </c>
-      <c r="F62" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H62" s="11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A63" s="9">
-        <v>62</v>
-      </c>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="16">
-        <v>5</v>
-      </c>
-      <c r="F63" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G63" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H63" s="11" t="s">
+      <c r="G88" s="8" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A64" s="9">
-        <v>63</v>
-      </c>
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="16">
-        <v>5</v>
-      </c>
-      <c r="F64" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G64" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H64" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A65" s="9">
-        <v>64</v>
-      </c>
-      <c r="B65" s="22"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="16">
-        <v>5</v>
-      </c>
-      <c r="F65" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H65" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A66" s="9">
-        <v>65</v>
-      </c>
-      <c r="B66" s="22"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="16">
-        <v>5</v>
-      </c>
-      <c r="F66" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G66" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H66" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A67" s="9">
-        <v>66</v>
-      </c>
-      <c r="B67" s="22"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E67" s="16">
-        <v>6</v>
-      </c>
-      <c r="F67" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G67" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H67" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A68" s="9">
-        <v>67</v>
-      </c>
-      <c r="B68" s="22"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="16">
-        <v>6</v>
-      </c>
-      <c r="F68" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G68" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H68" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A69" s="9">
-        <v>68</v>
-      </c>
-      <c r="B69" s="22"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="16">
-        <v>6</v>
-      </c>
-      <c r="F69" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G69" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H69" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A70" s="9">
-        <v>69</v>
-      </c>
-      <c r="B70" s="22"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="16">
-        <v>6</v>
-      </c>
-      <c r="F70" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G70" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H70" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A71" s="9">
-        <v>70</v>
-      </c>
-      <c r="B71" s="22"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="16">
-        <v>6</v>
-      </c>
-      <c r="F71" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="G71" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H71" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A72" s="9">
-        <v>71</v>
-      </c>
-      <c r="B72" s="22"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="16">
-        <v>6</v>
-      </c>
-      <c r="F72" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="G72" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H72" s="11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A73" s="9">
-        <v>72</v>
-      </c>
-      <c r="B73" s="22"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="16">
-        <v>6</v>
-      </c>
-      <c r="F73" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G73" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H73" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A74" s="9">
-        <v>73</v>
-      </c>
-      <c r="B74" s="22"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="11"/>
-      <c r="E74" s="16">
-        <v>6</v>
-      </c>
-      <c r="F74" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G74" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H74" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A75" s="9">
-        <v>74</v>
-      </c>
-      <c r="B75" s="22"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="11"/>
-      <c r="E75" s="16">
-        <v>6</v>
-      </c>
-      <c r="F75" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G75" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H75" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A76" s="9">
-        <v>75</v>
-      </c>
-      <c r="B76" s="22"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="16">
-        <v>6</v>
-      </c>
-      <c r="F76" s="9"/>
-      <c r="G76" s="13"/>
-      <c r="H76" s="11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A77" s="9">
-        <v>76</v>
-      </c>
-      <c r="B77" s="22"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="16">
-        <v>6</v>
-      </c>
-      <c r="F77" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="H77" s="11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A78" s="9">
-        <v>77</v>
-      </c>
-      <c r="B78" s="22"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="16">
-        <v>6</v>
-      </c>
-      <c r="F78" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H78" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A79" s="9">
+      <c r="H88" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B79" s="22"/>
-      <c r="C79" s="22"/>
-      <c r="D79" s="11"/>
-      <c r="E79" s="16">
-        <v>6</v>
-      </c>
-      <c r="F79" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G79" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H79" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A80" s="9">
-        <v>79</v>
-      </c>
-      <c r="B80" s="22"/>
-      <c r="C80" s="22"/>
-      <c r="D80" s="11"/>
-      <c r="E80" s="16">
-        <v>6</v>
-      </c>
-      <c r="F80" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G80" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H80" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A81" s="9">
-        <v>80</v>
-      </c>
-      <c r="B81" s="22"/>
-      <c r="C81" s="22"/>
-      <c r="D81" s="11"/>
-      <c r="E81" s="16">
-        <v>6</v>
-      </c>
-      <c r="F81" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G81" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H81" s="11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A82" s="9">
-        <v>81</v>
-      </c>
-      <c r="B82" s="22"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="11"/>
-      <c r="E82" s="16">
-        <v>6</v>
-      </c>
-      <c r="F82" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H82" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A83" s="9">
-        <v>82</v>
-      </c>
-      <c r="B83" s="22"/>
-      <c r="C83" s="22"/>
-      <c r="D83" s="11"/>
-      <c r="E83" s="16">
-        <v>6</v>
-      </c>
-      <c r="F83" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G83" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H83" s="11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A84" s="9">
-        <v>83</v>
-      </c>
-      <c r="B84" s="22"/>
-      <c r="C84" s="22"/>
-      <c r="D84" s="11"/>
-      <c r="E84" s="16">
-        <v>6</v>
-      </c>
-      <c r="F84" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G84" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H84" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A85" s="9">
-        <v>84</v>
-      </c>
-      <c r="B85" s="26"/>
-      <c r="C85" s="22"/>
-      <c r="D85" s="11"/>
-      <c r="E85" s="16">
-        <v>6</v>
-      </c>
-      <c r="F85" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G85" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H85" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A86" s="9">
-        <v>85</v>
-      </c>
-      <c r="B86" s="26"/>
-      <c r="C86" s="22"/>
-      <c r="D86" s="11"/>
-      <c r="E86" s="16">
-        <v>6</v>
-      </c>
-      <c r="F86" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G86" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H86" s="12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A87" s="9">
-        <v>86</v>
-      </c>
-      <c r="B87" s="26"/>
-      <c r="C87" s="22"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="16">
-        <v>6</v>
-      </c>
-      <c r="F87" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G87" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H87" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A88" s="9">
-        <v>87</v>
-      </c>
-      <c r="B88" s="27"/>
-      <c r="C88" s="24"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="16">
-        <v>6</v>
-      </c>
-      <c r="F88" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G88" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H88" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="16.5" customHeight="1">
+    </row>
+    <row r="89" spans="1:9" ht="16.5" customHeight="1">
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="3"/>
       <c r="F89" s="4"/>
     </row>
-    <row r="90" spans="1:8" ht="16.5" customHeight="1">
+    <row r="90" spans="1:9" ht="16.5" customHeight="1">
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="3"/>
       <c r="F90" s="4"/>
     </row>
-    <row r="91" spans="1:8" ht="16.5" customHeight="1">
+    <row r="91" spans="1:9" ht="16.5" customHeight="1">
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="3"/>
       <c r="F91" s="4"/>
     </row>
-    <row r="92" spans="1:8" ht="16.5" customHeight="1">
+    <row r="92" spans="1:9" ht="16.5" customHeight="1">
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="3"/>
       <c r="F92" s="4"/>
     </row>
-    <row r="93" spans="1:8" ht="16.5" customHeight="1">
+    <row r="93" spans="1:9" ht="16.5" customHeight="1">
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="3"/>
       <c r="F93" s="4"/>
     </row>
-    <row r="94" spans="1:8" ht="16.5" customHeight="1">
+    <row r="94" spans="1:9" ht="16.5" customHeight="1">
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="3"/>
       <c r="F94" s="4"/>
     </row>
-    <row r="95" spans="1:8" ht="16.5" customHeight="1">
+    <row r="95" spans="1:9" ht="16.5" customHeight="1">
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="3"/>
       <c r="F95" s="4"/>
     </row>
-    <row r="96" spans="1:8" ht="16.5" customHeight="1">
+    <row r="96" spans="1:9" ht="16.5" customHeight="1">
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
